--- a/final_pro.xlsx
+++ b/final_pro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_alldata\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,7 +439,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1179,13 +1179,13 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="P18" s="85">
         <f ca="1">_xlfn.DAYS(TODAY(),F7)</f>
-        <v>2061</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2640,7 +2640,7 @@
         <v>Student 4</v>
       </c>
       <c r="R22" s="54">
-        <f t="shared" ref="R22:T22" si="7">VLOOKUP($P$22, $A$2:$E$21, COLUMN(C1), 0)</f>
+        <f t="shared" ref="R22:S22" si="7">VLOOKUP($P$22, $A$2:$E$21, COLUMN(C1), 0)</f>
         <v>74</v>
       </c>
       <c r="S22" s="54">
@@ -3603,7 +3603,7 @@
         <v>finance</v>
       </c>
       <c r="L3" s="57">
-        <f t="shared" ref="L3:L22" si="2">DAY(E3)</f>
+        <f t="shared" ref="L3:L21" si="2">DAY(E3)</f>
         <v>8</v>
       </c>
       <c r="M3" s="54">
